--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dlk1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dlk1-Notch1.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.777907</v>
+        <v>0.5429463333333333</v>
       </c>
       <c r="H2">
-        <v>2.333721</v>
+        <v>1.628839</v>
       </c>
       <c r="I2">
-        <v>0.06867740520458042</v>
+        <v>0.04659251079363984</v>
       </c>
       <c r="J2">
-        <v>0.06867740520458043</v>
+        <v>0.04659251079363985</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N2">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O2">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P2">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q2">
-        <v>46.78595578705534</v>
+        <v>37.266411085875</v>
       </c>
       <c r="R2">
-        <v>421.073602083498</v>
+        <v>335.397699772875</v>
       </c>
       <c r="S2">
-        <v>0.03690341320485331</v>
+        <v>0.02523311323744684</v>
       </c>
       <c r="T2">
-        <v>0.0369034132048533</v>
+        <v>0.02523311323744685</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.777907</v>
+        <v>0.5429463333333333</v>
       </c>
       <c r="H3">
-        <v>2.333721</v>
+        <v>1.628839</v>
       </c>
       <c r="I3">
-        <v>0.06867740520458042</v>
+        <v>0.04659251079363984</v>
       </c>
       <c r="J3">
-        <v>0.06867740520458043</v>
+        <v>0.04659251079363985</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>33.150224</v>
       </c>
       <c r="O3">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P3">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q3">
-        <v>8.595930433722668</v>
+        <v>5.999597523326222</v>
       </c>
       <c r="R3">
-        <v>77.36337390350401</v>
+        <v>53.996377709936</v>
       </c>
       <c r="S3">
-        <v>0.006780222127333545</v>
+        <v>0.004062331715719645</v>
       </c>
       <c r="T3">
-        <v>0.006780222127333545</v>
+        <v>0.004062331715719646</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.777907</v>
+        <v>0.5429463333333333</v>
       </c>
       <c r="H4">
-        <v>2.333721</v>
+        <v>1.628839</v>
       </c>
       <c r="I4">
-        <v>0.06867740520458042</v>
+        <v>0.04659251079363984</v>
       </c>
       <c r="J4">
-        <v>0.06867740520458043</v>
+        <v>0.04659251079363985</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N4">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O4">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P4">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q4">
-        <v>9.533123226856668</v>
+        <v>8.80164636226589</v>
       </c>
       <c r="R4">
-        <v>85.79810904171001</v>
+        <v>79.214817260393</v>
       </c>
       <c r="S4">
-        <v>0.007519452785675759</v>
+        <v>0.005959600961392191</v>
       </c>
       <c r="T4">
-        <v>0.007519452785675758</v>
+        <v>0.005959600961392192</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.777907</v>
+        <v>0.5429463333333333</v>
       </c>
       <c r="H5">
-        <v>2.333721</v>
+        <v>1.628839</v>
       </c>
       <c r="I5">
-        <v>0.06867740520458042</v>
+        <v>0.04659251079363984</v>
       </c>
       <c r="J5">
-        <v>0.06867740520458043</v>
+        <v>0.04659251079363985</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N5">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O5">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P5">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q5">
-        <v>11.947242730423</v>
+        <v>11.03563524718811</v>
       </c>
       <c r="R5">
-        <v>107.525184573807</v>
+        <v>99.320717224693</v>
       </c>
       <c r="S5">
-        <v>0.009423640657170579</v>
+        <v>0.00747223641143707</v>
       </c>
       <c r="T5">
-        <v>0.009423640657170579</v>
+        <v>0.007472236411437072</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.777907</v>
+        <v>0.5429463333333333</v>
       </c>
       <c r="H6">
-        <v>2.333721</v>
+        <v>1.628839</v>
       </c>
       <c r="I6">
-        <v>0.06867740520458042</v>
+        <v>0.04659251079363984</v>
       </c>
       <c r="J6">
-        <v>0.06867740520458043</v>
+        <v>0.04659251079363985</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N6">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O6">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P6">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q6">
-        <v>10.206605806293</v>
+        <v>5.708498656530667</v>
       </c>
       <c r="R6">
-        <v>91.859452256637</v>
+        <v>51.376487908776</v>
       </c>
       <c r="S6">
-        <v>0.008050676429547236</v>
+        <v>0.003865228467644094</v>
       </c>
       <c r="T6">
-        <v>0.008050676429547236</v>
+        <v>0.003865228467644094</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>30.967833</v>
       </c>
       <c r="I7">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024722</v>
       </c>
       <c r="J7">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024723</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N7">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O7">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P7">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q7">
-        <v>620.8367090834394</v>
+        <v>708.516922186125</v>
       </c>
       <c r="R7">
-        <v>5587.530381750954</v>
+        <v>6376.652299675125</v>
       </c>
       <c r="S7">
-        <v>0.4896980989835084</v>
+        <v>0.4797373078661202</v>
       </c>
       <c r="T7">
-        <v>0.4896980989835083</v>
+        <v>0.4797373078661202</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>30.967833</v>
       </c>
       <c r="I8">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024722</v>
       </c>
       <c r="J8">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024723</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>33.150224</v>
       </c>
       <c r="O8">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P8">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q8">
         <v>114.0656223049547</v>
@@ -948,10 +948,10 @@
         <v>1026.590600744592</v>
       </c>
       <c r="S8">
-        <v>0.0899716746526984</v>
+        <v>0.07723391333520958</v>
       </c>
       <c r="T8">
-        <v>0.0899716746526984</v>
+        <v>0.0772339133352096</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>30.967833</v>
       </c>
       <c r="I9">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024722</v>
       </c>
       <c r="J9">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024723</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N9">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O9">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P9">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q9">
-        <v>126.5019117785367</v>
+        <v>167.3387699285857</v>
       </c>
       <c r="R9">
-        <v>1138.51720600683</v>
+        <v>1506.048929357271</v>
       </c>
       <c r="S9">
-        <v>0.09978106128290044</v>
+        <v>0.1133051991750154</v>
       </c>
       <c r="T9">
-        <v>0.09978106128290043</v>
+        <v>0.1133051991750154</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>30.967833</v>
       </c>
       <c r="I10">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024722</v>
       </c>
       <c r="J10">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024723</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N10">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O10">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P10">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q10">
-        <v>158.536610711479</v>
+        <v>209.8118410621524</v>
       </c>
       <c r="R10">
-        <v>1426.829496403311</v>
+        <v>1888.306569559371</v>
       </c>
       <c r="S10">
-        <v>0.1250491083224039</v>
+        <v>0.1420637456040177</v>
       </c>
       <c r="T10">
-        <v>0.1250491083224039</v>
+        <v>0.1420637456040177</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>30.967833</v>
       </c>
       <c r="I11">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024722</v>
       </c>
       <c r="J11">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024723</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N11">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O11">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P11">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q11">
-        <v>135.438839563989</v>
+        <v>108.531188826008</v>
       </c>
       <c r="R11">
-        <v>1218.949556075901</v>
+        <v>976.7806994340719</v>
       </c>
       <c r="S11">
-        <v>0.1068302522911929</v>
+        <v>0.07348654452210943</v>
       </c>
       <c r="T11">
-        <v>0.1068302522911929</v>
+        <v>0.07348654452210944</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2264533333333334</v>
+        <v>0.7875243333333334</v>
       </c>
       <c r="H12">
-        <v>0.6793600000000001</v>
+        <v>2.362573</v>
       </c>
       <c r="I12">
-        <v>0.01999239926271553</v>
+        <v>0.06758077870388791</v>
       </c>
       <c r="J12">
-        <v>0.01999239926271554</v>
+        <v>0.06758077870388793</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N12">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O12">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P12">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q12">
-        <v>13.61966872796445</v>
+        <v>54.05360298862501</v>
       </c>
       <c r="R12">
-        <v>122.57701855168</v>
+        <v>486.482426897625</v>
       </c>
       <c r="S12">
-        <v>0.0107428020722482</v>
+        <v>0.03659973271804919</v>
       </c>
       <c r="T12">
-        <v>0.0107428020722482</v>
+        <v>0.03659973271804919</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2264533333333334</v>
+        <v>0.7875243333333334</v>
       </c>
       <c r="H13">
-        <v>0.6793600000000001</v>
+        <v>2.362573</v>
       </c>
       <c r="I13">
-        <v>0.01999239926271553</v>
+        <v>0.06758077870388791</v>
       </c>
       <c r="J13">
-        <v>0.01999239926271554</v>
+        <v>0.06758077870388793</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>33.150224</v>
       </c>
       <c r="O13">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P13">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q13">
-        <v>2.502326241848889</v>
+        <v>8.702202685150223</v>
       </c>
       <c r="R13">
-        <v>22.52093617664</v>
+        <v>78.31982416635201</v>
       </c>
       <c r="S13">
-        <v>0.001973762803876435</v>
+        <v>0.005892267577460333</v>
       </c>
       <c r="T13">
-        <v>0.001973762803876435</v>
+        <v>0.005892267577460334</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2264533333333334</v>
+        <v>0.7875243333333334</v>
       </c>
       <c r="H14">
-        <v>0.6793600000000001</v>
+        <v>2.362573</v>
       </c>
       <c r="I14">
-        <v>0.01999239926271553</v>
+        <v>0.06758077870388791</v>
       </c>
       <c r="J14">
-        <v>0.01999239926271554</v>
+        <v>0.06758077870388793</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N14">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O14">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P14">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q14">
-        <v>2.775148612622223</v>
+        <v>12.76647480262789</v>
       </c>
       <c r="R14">
-        <v>24.9763375136</v>
+        <v>114.898273223651</v>
       </c>
       <c r="S14">
-        <v>0.002188957225168169</v>
+        <v>0.008644189095520942</v>
       </c>
       <c r="T14">
-        <v>0.002188957225168168</v>
+        <v>0.008644189095520944</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2264533333333334</v>
+        <v>0.7875243333333334</v>
       </c>
       <c r="H15">
-        <v>0.6793600000000001</v>
+        <v>2.362573</v>
       </c>
       <c r="I15">
-        <v>0.01999239926271553</v>
+        <v>0.06758077870388791</v>
       </c>
       <c r="J15">
-        <v>0.01999239926271554</v>
+        <v>0.06758077870388793</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N15">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O15">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P15">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q15">
-        <v>3.477913093013334</v>
+        <v>16.00679617375011</v>
       </c>
       <c r="R15">
-        <v>31.30121783712</v>
+        <v>144.061165563751</v>
       </c>
       <c r="S15">
-        <v>0.002743277588390131</v>
+        <v>0.0108382129819326</v>
       </c>
       <c r="T15">
-        <v>0.002743277588390131</v>
+        <v>0.0108382129819326</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2264533333333334</v>
+        <v>0.7875243333333334</v>
       </c>
       <c r="H16">
-        <v>0.6793600000000001</v>
+        <v>2.362573</v>
       </c>
       <c r="I16">
-        <v>0.01999239926271553</v>
+        <v>0.06758077870388791</v>
       </c>
       <c r="J16">
-        <v>0.01999239926271554</v>
+        <v>0.06758077870388793</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N16">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O16">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P16">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q16">
-        <v>2.97120337888</v>
+        <v>8.279974138914667</v>
       </c>
       <c r="R16">
-        <v>26.74083040992</v>
+        <v>74.51976725023201</v>
       </c>
       <c r="S16">
-        <v>0.002343599573032599</v>
+        <v>0.005606376330924855</v>
       </c>
       <c r="T16">
-        <v>0.002343599573032599</v>
+        <v>0.005606376330924857</v>
       </c>
     </row>
   </sheetData>
